--- a/B 2.2/Messdaten/XRD/Probe2.xlsx
+++ b/B 2.2/Messdaten/XRD/Probe2.xlsx
@@ -28826,7 +28826,7 @@
         <v>90.94</v>
       </c>
       <c r="B3549" t="n">
-        <v>1072</v>
+        <v>920</v>
       </c>
     </row>
     <row r="3550">
